--- a/配表/物品表.xlsx
+++ b/配表/物品表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16365" windowHeight="12765"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="ItemConfig" sheetId="1" r:id="rId1"/>
@@ -691,7 +691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,9 +702,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1292,10 +1289,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>1001</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1">
@@ -1306,10 +1303,10 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>1002</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1">
@@ -1320,10 +1317,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>1003</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
@@ -1343,7 +1340,7 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>1004</v>
       </c>
     </row>
